--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/40.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/40.xlsx
@@ -479,13 +479,13 @@
         <v>-15.34333561291028</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.18083889073479</v>
+        <v>-14.15492922341102</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5269286263100411</v>
+        <v>-0.5232758738171995</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.51312189574512</v>
+        <v>-10.45016101137926</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.00580617803644</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.38887558288982</v>
+        <v>-14.36246840805806</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5161929379798258</v>
+        <v>-0.5161012918599337</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.2679030635196</v>
+        <v>-10.20494217915373</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.64834460264321</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.70298611266851</v>
+        <v>-14.67771796818398</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4316559385308005</v>
+        <v>-0.437180890330009</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.842835267157275</v>
+        <v>-9.780384982602243</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.29372191834153</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.16065374310673</v>
+        <v>-15.1348226296</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3722954374464146</v>
+        <v>-0.3792474502553711</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.625974362886925</v>
+        <v>-9.562398140287502</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.92098722387481</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.60715363922095</v>
+        <v>-15.57857314211747</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3527486293037175</v>
+        <v>-0.3620441643213431</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.434119757044272</v>
+        <v>-9.371630195580712</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.53535233883663</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.0832159551518</v>
+        <v>-16.05087796713273</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.374089082935731</v>
+        <v>-0.3844581867863781</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.290510287173378</v>
+        <v>-9.230665370883848</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.1294394404791</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.58851338332822</v>
+        <v>-16.55296778111293</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1528160726077188</v>
+        <v>-0.1648086220107398</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.088626977353961</v>
+        <v>-9.028441661190547</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.6814726595808</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.20762220010776</v>
+        <v>-17.1722729824351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03537268843925176</v>
+        <v>0.03351358143572666</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.105057817420327</v>
+        <v>-9.051588852614719</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.17584865423869</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.62766255217885</v>
+        <v>-17.5925359036545</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1680500854373037</v>
+        <v>0.1604303651834192</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.79605328574991</v>
+        <v>-8.738394784034949</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.61308631334433</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.15830667865685</v>
+        <v>-18.12003787745049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2959487918981257</v>
+        <v>0.2863128570066153</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.715587992484661</v>
+        <v>-8.660691966669303</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.98470328412271</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.67884354734104</v>
+        <v>-18.64084968449435</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3712295332380506</v>
+        <v>0.3661497197354608</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.211547425381049</v>
+        <v>-8.158615244991951</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.28436855666763</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.4391528502686</v>
+        <v>-19.40070075682245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5055172834856348</v>
+        <v>0.501065900519448</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.619487306272513</v>
+        <v>-7.565389910930501</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.536040385944695</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.26295982197853</v>
+        <v>-20.22563366657677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7415322268134307</v>
+        <v>0.7387828432166682</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.043504535053616</v>
+        <v>-6.984824833717</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.750743436487477</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.06191760289486</v>
+        <v>-21.0204804644008</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8250349343379596</v>
+        <v>0.8185804290369886</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.491860354817488</v>
+        <v>-6.435170683512815</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.934732083559783</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.95473410288353</v>
+        <v>-21.90972276571367</v>
       </c>
       <c r="F16" t="n">
-        <v>1.072021227447122</v>
+        <v>1.06321010763464</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.003150874341538</v>
+        <v>-5.939116421142655</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.111698735060266</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.59319334326314</v>
+        <v>-22.54998874388545</v>
       </c>
       <c r="F17" t="n">
-        <v>1.247837762308661</v>
+        <v>1.240074026723518</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.879441704790068</v>
+        <v>-5.816467728121365</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.295647567574194</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.37583811483869</v>
+        <v>-23.32996268568128</v>
       </c>
       <c r="F18" t="n">
-        <v>1.569293073981561</v>
+        <v>1.560076092780986</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.476185684962063</v>
+        <v>-5.418500998641418</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.491971760816244</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.17103840483944</v>
+        <v>-24.12753268249639</v>
       </c>
       <c r="F19" t="n">
-        <v>1.817654058889105</v>
+        <v>1.81079369220004</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.229854006994987</v>
+        <v>-5.166853845720602</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.714779192970318</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.92501103319161</v>
+        <v>-24.87912251173136</v>
       </c>
       <c r="F20" t="n">
-        <v>2.039332930605211</v>
+        <v>2.034986286061758</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.989570972940789</v>
+        <v>-4.926727919300504</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.978088859251765</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.50507860289712</v>
+        <v>-25.45826052793511</v>
       </c>
       <c r="F21" t="n">
-        <v>2.397826367017354</v>
+        <v>2.391306400202174</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.736339651376123</v>
+        <v>-4.674360689723392</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.288002868088312</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.08059005121371</v>
+        <v>-26.03458369902789</v>
       </c>
       <c r="F22" t="n">
-        <v>2.685961767958061</v>
+        <v>2.682871984487414</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.435242870622107</v>
+        <v>-4.382899843860886</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.651902969553639</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.58341303415305</v>
+        <v>-26.53668660531093</v>
       </c>
       <c r="F23" t="n">
-        <v>2.883105664148772</v>
+        <v>2.87975403462129</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.288582894189092</v>
+        <v>-4.231408807679274</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.083171564363034</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.79810061615167</v>
+        <v>-26.75188478712038</v>
       </c>
       <c r="F24" t="n">
-        <v>3.004759342154091</v>
+        <v>3.006068572438263</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.102318701659855</v>
+        <v>-4.051756228085109</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.584264788570126</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.10871550107162</v>
+        <v>-27.05718419708659</v>
       </c>
       <c r="F25" t="n">
-        <v>3.312088059060769</v>
+        <v>3.312742674202855</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.850252595048103</v>
+        <v>-3.798564183428968</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.152270796365651</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.07660008220087</v>
+        <v>-27.0252782550613</v>
       </c>
       <c r="F26" t="n">
-        <v>3.386164308539255</v>
+        <v>3.390170553208823</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.81071384046609</v>
+        <v>-3.757532906322999</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.793976695222201</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.0092139994745</v>
+        <v>-26.9558104961831</v>
       </c>
       <c r="F27" t="n">
-        <v>3.397973565702492</v>
+        <v>3.40281771775393</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.749520416983863</v>
+        <v>-3.703448603283829</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.5059385378542375</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.92217637018271</v>
+        <v>-26.86865503616573</v>
       </c>
       <c r="F28" t="n">
-        <v>3.467205663129539</v>
+        <v>3.468383970385295</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.749677524617963</v>
+        <v>-3.704011572306023</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2810041667208861</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.78177451450804</v>
+        <v>-26.72589656597955</v>
       </c>
       <c r="F29" t="n">
-        <v>3.473699445339035</v>
+        <v>3.47980045846328</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.675129952237175</v>
+        <v>-3.63110053778045</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.1186316779518588</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.66475551170869</v>
+        <v>-26.61105088545193</v>
       </c>
       <c r="F30" t="n">
-        <v>3.450290407858029</v>
+        <v>3.454296652527597</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.634766382576133</v>
+        <v>-3.590763152725092</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.0146641894580952</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.2616304149091</v>
+        <v>-26.2079126963495</v>
       </c>
       <c r="F31" t="n">
-        <v>3.3447926315594</v>
+        <v>3.349662968216522</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.822457636115118</v>
+        <v>-3.781347805192099</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.03819469681352163</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.9290990150321</v>
+        <v>-25.87695237281351</v>
       </c>
       <c r="F32" t="n">
-        <v>3.297503233695086</v>
+        <v>3.302609231803359</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.916185432159035</v>
+        <v>-3.871501402560224</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.04308002942824964</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.50909793986953</v>
+        <v>-25.45799868187827</v>
       </c>
       <c r="F33" t="n">
-        <v>3.1794368466684</v>
+        <v>3.182526630139047</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.068632206448093</v>
+        <v>-4.026317883663635</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.002648883001428859</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.05127320179721</v>
+        <v>-25.00266148134588</v>
       </c>
       <c r="F34" t="n">
-        <v>3.101171060280562</v>
+        <v>3.10297779807272</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.989777266432378</v>
+        <v>-3.947737882007595</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.0780996547933137</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.69991507043381</v>
+        <v>-24.64848850487151</v>
       </c>
       <c r="F35" t="n">
-        <v>2.848908569126184</v>
+        <v>2.84880383070345</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.093612320270107</v>
+        <v>-4.048116567895109</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.1953409996324685</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.99981726827535</v>
+        <v>-23.95383710069521</v>
       </c>
       <c r="F36" t="n">
-        <v>2.731444428030218</v>
+        <v>2.730161382351728</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.412409894466137</v>
+        <v>-4.365172865813189</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.3466300993434139</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.57154185771681</v>
+        <v>-23.52457976742354</v>
       </c>
       <c r="F37" t="n">
-        <v>2.576510116201231</v>
+        <v>2.57467719380339</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.495598386722464</v>
+        <v>-4.444224190371531</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.5258543609039945</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.19538690477117</v>
+        <v>-23.15144913643434</v>
       </c>
       <c r="F38" t="n">
-        <v>2.520632167672745</v>
+        <v>2.51741146117368</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.602942177721776</v>
+        <v>-4.550167104966778</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.7252496493166218</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.72216561855699</v>
+        <v>-22.67534754359497</v>
       </c>
       <c r="F39" t="n">
-        <v>2.474442523247135</v>
+        <v>2.477218091449581</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.538960093734261</v>
+        <v>-4.484679406152464</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.9393396198699863</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.36289973627718</v>
+        <v>-22.31664463033736</v>
       </c>
       <c r="F40" t="n">
-        <v>2.459910067092819</v>
+        <v>2.458208067723394</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.592232673997244</v>
+        <v>-4.539889647236024</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.161419079465769</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.8408572527662</v>
+        <v>-21.80150179042397</v>
       </c>
       <c r="F41" t="n">
-        <v>2.541972621304758</v>
+        <v>2.54388409751965</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.529913312470629</v>
+        <v>-4.471220518831171</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.383407456012806</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.23021915592525</v>
+        <v>-21.18499834190993</v>
       </c>
       <c r="F42" t="n">
-        <v>2.669727312434321</v>
+        <v>2.670015343096839</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.542259354050376</v>
+        <v>-4.482074037886961</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.602069199421705</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57654665964355</v>
+        <v>-20.53359081401985</v>
       </c>
       <c r="F43" t="n">
-        <v>2.779466994853669</v>
+        <v>2.780619117503741</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.533408957329369</v>
+        <v>-4.475043471260954</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.814163245880728</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.32239887687997</v>
+        <v>-20.28081772305464</v>
       </c>
       <c r="F44" t="n">
-        <v>2.732517996863239</v>
+        <v>2.731811012509786</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.620119279050121</v>
+        <v>-4.559370993864512</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.014603181608344</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.88706671508973</v>
+        <v>-19.84358717735236</v>
       </c>
       <c r="F45" t="n">
-        <v>2.808846122430502</v>
+        <v>2.807877292020214</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.603596792863862</v>
+        <v>-4.54366023045444</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.202442014354562</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.53082515476637</v>
+        <v>-19.49052704661953</v>
       </c>
       <c r="F46" t="n">
-        <v>2.853019552218486</v>
+        <v>2.849510815056903</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.706921246890765</v>
+        <v>-4.649747160380947</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.377820920319445</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.05184325530182</v>
+        <v>-19.01035374759639</v>
       </c>
       <c r="F47" t="n">
-        <v>2.88187498768165</v>
+        <v>2.882503418218053</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.019133392757406</v>
+        <v>-4.962312798424315</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.53935128304843</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.59760580820813</v>
+        <v>-18.55476779331</v>
       </c>
       <c r="F48" t="n">
-        <v>2.850689122312659</v>
+        <v>2.849170415183018</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.145657407419847</v>
+        <v>-5.088954643812332</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.687555967239317</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.11825732426401</v>
+        <v>-18.08269862974588</v>
       </c>
       <c r="F49" t="n">
-        <v>2.876009636008557</v>
+        <v>2.878261512097334</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.40455769611498</v>
+        <v>-5.340798181275774</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.82598719634588</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.63550484158105</v>
+        <v>-17.59597917930188</v>
       </c>
       <c r="F50" t="n">
-        <v>2.926781586428771</v>
+        <v>2.928247924347044</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.496203816007062</v>
+        <v>-5.43565191536408</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.955724210146858</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.94332788264183</v>
+        <v>-16.9053209274923</v>
       </c>
       <c r="F51" t="n">
-        <v>2.902377533931793</v>
+        <v>2.904995994500138</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.71979416393806</v>
+        <v>-5.652643742662847</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.07583143769424</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.56964737493329</v>
+        <v>-16.5298336819916</v>
       </c>
       <c r="F52" t="n">
-        <v>2.78493957744151</v>
+        <v>2.787112899713237</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.854893636961831</v>
+        <v>-5.79343836742277</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.190114324555874</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.14165999503726</v>
+        <v>-16.10551214689126</v>
       </c>
       <c r="F53" t="n">
-        <v>2.85328139827532</v>
+        <v>2.856475920168701</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.914489799497368</v>
+        <v>-5.852903606929889</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.299379573808974</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.86280703681134</v>
+        <v>-15.82823026500634</v>
       </c>
       <c r="F54" t="n">
-        <v>2.61222591835346</v>
+        <v>2.614163579174035</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.156265356075524</v>
+        <v>-6.088604334989483</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.399766152750093</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.518309272137</v>
+        <v>-15.48971568273067</v>
       </c>
       <c r="F55" t="n">
-        <v>2.455249207281164</v>
+        <v>2.452316531444618</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.368216646780227</v>
+        <v>-6.304247655095554</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.493442598660189</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.11303703767137</v>
+        <v>-15.08131438788587</v>
       </c>
       <c r="F56" t="n">
-        <v>2.393165507205699</v>
+        <v>2.397355044115052</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.559547560509212</v>
+        <v>-6.498524336963927</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.580129322246824</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.57266533018197</v>
+        <v>-14.54132235717888</v>
       </c>
       <c r="F57" t="n">
-        <v>2.346661647511888</v>
+        <v>2.351505799563327</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.82682692302305</v>
+        <v>-6.765764422569239</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.654825379677393</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.32334860716698</v>
+        <v>-14.29019889637173</v>
       </c>
       <c r="F58" t="n">
-        <v>2.168632513470097</v>
+        <v>2.172795865773766</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.785992030459706</v>
+        <v>-6.722114684894924</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.717393161658831</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.94554402406329</v>
+        <v>-13.91369045124937</v>
       </c>
       <c r="F59" t="n">
-        <v>2.218278525845923</v>
+        <v>2.221473047739304</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.925634532569556</v>
+        <v>-6.859780249275675</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.769098598107792</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.83300258883581</v>
+        <v>-13.79957793968089</v>
       </c>
       <c r="F60" t="n">
-        <v>2.037866592686937</v>
+        <v>2.040851637734851</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.88485200921758</v>
+        <v>-6.821328155829525</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.80803362364007</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.50782906315586</v>
+        <v>-13.47160266119281</v>
       </c>
       <c r="F61" t="n">
-        <v>1.918464790770396</v>
+        <v>1.918988482884065</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.208402089345156</v>
+        <v>-7.149303434317605</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.833951134716371</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.20361631432552</v>
+        <v>-13.16788741987044</v>
       </c>
       <c r="F62" t="n">
-        <v>1.838104235927881</v>
+        <v>1.839125435549536</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.265510714340765</v>
+        <v>-7.193319756471488</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.852579203063069</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.87439726706747</v>
+        <v>-12.84027872586193</v>
       </c>
       <c r="F63" t="n">
-        <v>1.769919522728172</v>
+        <v>1.770809799321409</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.378759133921696</v>
+        <v>-7.311582528040799</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.865457187365768</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.63071023427442</v>
+        <v>-12.59507298593925</v>
       </c>
       <c r="F64" t="n">
-        <v>1.654523965481198</v>
+        <v>1.654262119424364</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.566987171877191</v>
+        <v>-7.500281888898597</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.871238182545809</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.42128575801817</v>
+        <v>-12.38253254160666</v>
       </c>
       <c r="F65" t="n">
-        <v>1.583432761050626</v>
+        <v>1.58225445379487</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.79718913274326</v>
+        <v>-7.730077988376573</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.876631586767091</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.18503515323923</v>
+        <v>-12.14588916774247</v>
       </c>
       <c r="F66" t="n">
-        <v>1.513415125453075</v>
+        <v>1.513205648607607</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.916813503808112</v>
+        <v>-7.853250373511532</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.883755766432072</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.00407334336089</v>
+        <v>-11.96492735786413</v>
       </c>
       <c r="F67" t="n">
-        <v>1.554524956376094</v>
+        <v>1.557326709184224</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.876868887838006</v>
+        <v>-7.814837556973908</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.888936564780136</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.91172023911535</v>
+        <v>-11.87338597639478</v>
       </c>
       <c r="F68" t="n">
-        <v>1.419752790923366</v>
+        <v>1.423209158873582</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.891833389986099</v>
+        <v>-7.830875627955022</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.896598300028438</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.76546612407043</v>
+        <v>-11.72431701623889</v>
       </c>
       <c r="F69" t="n">
-        <v>1.301110342571645</v>
+        <v>1.306949509639054</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.961340425772822</v>
+        <v>-7.903485539515235</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.908360839675517</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.6613168549645</v>
+        <v>-11.6218435618967</v>
       </c>
       <c r="F70" t="n">
-        <v>1.354631676588621</v>
+        <v>1.35531247633639</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.905436292638652</v>
+        <v>-7.845984145434374</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.920258965049024</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.39642029156786</v>
+        <v>-11.35528427603915</v>
       </c>
       <c r="F71" t="n">
-        <v>1.291330392348875</v>
+        <v>1.293477530014918</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.762926576206463</v>
+        <v>-7.705516828245495</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.93302486422286</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.34179920411218</v>
+        <v>-11.29949797363056</v>
       </c>
       <c r="F72" t="n">
-        <v>1.342770050214017</v>
+        <v>1.346383525798333</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.7618399150706</v>
+        <v>-7.706786781621142</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.949033853597518</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.32439953363552</v>
+        <v>-11.27991188857934</v>
       </c>
       <c r="F73" t="n">
-        <v>1.313338553425817</v>
+        <v>1.319570489578478</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.650502971704562</v>
+        <v>-7.594127515668089</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.965457377721481</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.51741935443109</v>
+        <v>-11.4753145084921</v>
       </c>
       <c r="F74" t="n">
-        <v>1.360182812993513</v>
+        <v>1.367226471922361</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.534217137864351</v>
+        <v>-7.478457020061439</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.979469690484031</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.64458489193277</v>
+        <v>-11.6038023685808</v>
       </c>
       <c r="F75" t="n">
-        <v>1.293438253106393</v>
+        <v>1.299094127934019</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.398476142001335</v>
+        <v>-7.346787730382201</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.994966954813616</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98299473578571</v>
+        <v>-11.94322031975255</v>
       </c>
       <c r="F76" t="n">
-        <v>1.321193935130852</v>
+        <v>1.326011902576608</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.20880795073325</v>
+        <v>-7.154762924602604</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.010049166825272</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.59478495527673</v>
+        <v>-12.55667326170446</v>
       </c>
       <c r="F77" t="n">
-        <v>1.295048606355925</v>
+        <v>1.299473804716429</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.031106124262502</v>
+        <v>-6.980818589047431</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.019457496977573</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.12469591279559</v>
+        <v>-13.08722574206257</v>
       </c>
       <c r="F78" t="n">
-        <v>1.320015627875097</v>
+        <v>1.326928363775528</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.891804022026536</v>
+        <v>-6.840298902647186</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.027313007843553</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.62056688292597</v>
+        <v>-13.58290032765032</v>
       </c>
       <c r="F79" t="n">
-        <v>1.376443453122936</v>
+        <v>1.386943480002001</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.71161465801586</v>
+        <v>-6.663212414409999</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.033810321890039</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.17535321584411</v>
+        <v>-14.14132632075846</v>
       </c>
       <c r="F80" t="n">
-        <v>1.376076868643368</v>
+        <v>1.376181607066102</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.450344662506375</v>
+        <v>-6.398433681738931</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.034076588403577</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.9574481107003</v>
+        <v>-14.92596112236595</v>
       </c>
       <c r="F81" t="n">
-        <v>1.431247832818402</v>
+        <v>1.437767799633581</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.333495859643969</v>
+        <v>-6.281532509665159</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.031316705186026</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.71156475438372</v>
+        <v>-15.68075856579714</v>
       </c>
       <c r="F82" t="n">
-        <v>1.467016004181997</v>
+        <v>1.472540955981206</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.246706984106168</v>
+        <v>-6.196838402582033</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.026106529721465</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.57885126383102</v>
+        <v>-16.5492888440144</v>
       </c>
       <c r="F83" t="n">
-        <v>1.420250298431352</v>
+        <v>1.428158049347754</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.987178264874632</v>
+        <v>-5.937754821647116</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.013762449652281</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.64944814410749</v>
+        <v>-17.62037013949601</v>
       </c>
       <c r="F84" t="n">
-        <v>1.510377711193794</v>
+        <v>1.514122109806528</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.797326781366762</v>
+        <v>-5.747890245836405</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.992683428892364</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.46190408925364</v>
+        <v>-18.43270825391659</v>
       </c>
       <c r="F85" t="n">
-        <v>1.499432546018111</v>
+        <v>1.504852759394586</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.587522628328101</v>
+        <v>-5.538753800242672</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.962736832850092</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.54516122637806</v>
+        <v>-19.51878023615198</v>
       </c>
       <c r="F86" t="n">
-        <v>1.497494885197536</v>
+        <v>1.500663222485233</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.293273121960309</v>
+        <v>-5.242579725357145</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.918844313284622</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.60766706349833</v>
+        <v>-20.57798681295614</v>
       </c>
       <c r="F87" t="n">
-        <v>1.526140843815232</v>
+        <v>1.528366535298326</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.021267438120607</v>
+        <v>-4.972616440760754</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.855962629773234</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.96783949802809</v>
+        <v>-21.94077770805425</v>
       </c>
       <c r="F88" t="n">
-        <v>1.576546209755878</v>
+        <v>1.579505070198108</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.714410044116232</v>
+        <v>-4.659867510477601</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.77598199565409</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.43785635339994</v>
+        <v>-23.40959007156465</v>
       </c>
       <c r="F89" t="n">
-        <v>1.368064379304232</v>
+        <v>1.371180347380563</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.372596201524448</v>
+        <v>-4.321287466687723</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.676280182704097</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.92964570839758</v>
+        <v>-24.89870859678258</v>
       </c>
       <c r="F90" t="n">
-        <v>1.221404402871216</v>
+        <v>1.223970494228195</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.177455427668521</v>
+        <v>-4.126146692831797</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.552318529578718</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.57526962178549</v>
+        <v>-26.55296033774319</v>
       </c>
       <c r="F91" t="n">
-        <v>1.055132156781295</v>
+        <v>1.059832293501475</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.140718425894637</v>
+        <v>-4.088597968281726</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.405060028531344</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.28038495928621</v>
+        <v>-28.25639986048017</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9715770800453994</v>
+        <v>0.9759891861030612</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.894700963195763</v>
+        <v>-3.843222028422096</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.231495308721124</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.17757747177789</v>
+        <v>-30.15067278943815</v>
       </c>
       <c r="F93" t="n">
-        <v>0.852738247151052</v>
+        <v>0.8533012161732462</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.939371900491732</v>
+        <v>-3.886204058651483</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.026059462447126</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.3205517855173</v>
+        <v>-32.29347690324061</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7656220640422067</v>
+        <v>0.7625715574800845</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.975742317786047</v>
+        <v>-3.924643059794791</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.786906839404704</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.41470490195991</v>
+        <v>-34.38677901999851</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3532538014363607</v>
+        <v>0.3513292329186269</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.981542207944932</v>
+        <v>-3.928911150521193</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.509797435105865</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.43695509119576</v>
+        <v>-36.40622745642623</v>
       </c>
       <c r="F96" t="n">
-        <v>0.074217550970653</v>
+        <v>0.06964833727889061</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.156808866087119</v>
+        <v>-4.104701500777049</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.194882439875518</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.57316068436599</v>
+        <v>-38.54135948076344</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2512309130689736</v>
+        <v>-0.2562845419658799</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.247224309512079</v>
+        <v>-4.192969806535966</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.837443345075479</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.92203764489723</v>
+        <v>-40.88896648791903</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5156954304718402</v>
+        <v>-0.5205526748261206</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.455784693780775</v>
+        <v>-4.399684176103979</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.452018739193385</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.3464179159167</v>
+        <v>-43.31402755868626</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.430582369697779</v>
+        <v>-0.4371154288158003</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.77356106835515</v>
+        <v>-4.719031627019361</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.032161712954219</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.83068238013421</v>
+        <v>-45.7997714531249</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5695833489683847</v>
+        <v>-0.5791669146485282</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.016423286069169</v>
+        <v>-4.96485270517561</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.6083144194941574</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.23694290402074</v>
+        <v>-48.20290291663225</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6014892909936711</v>
+        <v>-0.6074331964838148</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.377495906141132</v>
+        <v>-5.324053125941206</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1592309498320919</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.52878979337341</v>
+        <v>-50.49621614390319</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7237713995353926</v>
+        <v>-0.7309852584011837</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.692810927781263</v>
+        <v>-5.642235361903675</v>
       </c>
     </row>
   </sheetData>
